--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/15/seed3/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.94139999999999</v>
+        <v>-12.00939999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -544,7 +544,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>6.424799999999998</v>
+        <v>5.891699999999997</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -572,7 +572,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.668699999999999</v>
+        <v>5.405799999999999</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -600,13 +600,13 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.8306</v>
+        <v>5.386599999999998</v>
       </c>
       <c r="C12" t="n">
-        <v>-13.821</v>
+        <v>-13.8067</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.745299999999999</v>
+        <v>-7.828400000000001</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.376499999999995</v>
+        <v>-8.2799</v>
       </c>
     </row>
     <row r="14">
@@ -645,7 +645,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.702</v>
+        <v>-13.4559</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -673,7 +673,7 @@
         <v>3.89</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.7632</v>
+        <v>-14.20399999999999</v>
       </c>
       <c r="D17" t="n">
         <v>-7.82</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.761899999999994</v>
+        <v>6.735099999999996</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.915699999999992</v>
+        <v>-8.458799999999995</v>
       </c>
     </row>
     <row r="22">
@@ -788,7 +788,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.370899999999995</v>
+        <v>-7.532699999999997</v>
       </c>
     </row>
     <row r="26">
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.93100000000001</v>
+        <v>-12.53610000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.6462</v>
+        <v>-12.57359999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.93499999999999</v>
+        <v>-13.8048</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.962800000000001</v>
+        <v>-7.141700000000002</v>
       </c>
     </row>
     <row r="33">
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.618099999999999</v>
+        <v>-7.444200000000003</v>
       </c>
     </row>
     <row r="37">
@@ -950,10 +950,10 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.728300000000008</v>
+        <v>9.127399999999993</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.7443</v>
+        <v>-13.1836</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.833600000000001</v>
+        <v>-8.0594</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.033099999999996</v>
+        <v>-8.115599999999995</v>
       </c>
     </row>
     <row r="42">
@@ -1093,7 +1093,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.77489999999998</v>
+        <v>-12.38839999999999</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.798599999999997</v>
+        <v>-7.879299999999996</v>
       </c>
     </row>
     <row r="53">
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.326899999999995</v>
+        <v>6.051399999999997</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1264,7 +1264,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.477099999999993</v>
+        <v>-8.411899999999992</v>
       </c>
     </row>
     <row r="60">
@@ -1345,7 +1345,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.6632</v>
+        <v>-12.4868</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.141399999999993</v>
+        <v>-7.195699999999995</v>
       </c>
     </row>
     <row r="68">
@@ -1384,7 +1384,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.874999999999996</v>
+        <v>4.783499999999996</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.5478</v>
+        <v>-12.0097</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.276300000000003</v>
+        <v>9.361100000000009</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1524,7 +1524,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.780200000000001</v>
+        <v>10.0454</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.477300000000002</v>
+        <v>5.599400000000005</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.411400000000002</v>
+        <v>5.663000000000002</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1611,10 +1611,10 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.67049999999999</v>
+        <v>-13.78129999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>-7.758599999999996</v>
+        <v>-7.920599999999995</v>
       </c>
     </row>
     <row r="85">
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-13.3966</v>
+        <v>-13.4754</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1670,7 +1670,7 @@
         <v>-14.32</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.667699999999999</v>
+        <v>-7.801299999999998</v>
       </c>
     </row>
     <row r="89">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.245299999999995</v>
+        <v>-8.259399999999994</v>
       </c>
     </row>
     <row r="90">
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.2915</v>
+        <v>-10.1372</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1765,10 +1765,10 @@
         <v>7.55</v>
       </c>
       <c r="C95" t="n">
-        <v>-13.18799999999999</v>
+        <v>-13.32109999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.710299999999998</v>
+        <v>-7.611000000000001</v>
       </c>
     </row>
     <row r="96">
@@ -1807,7 +1807,7 @@
         <v>5.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.14810000000001</v>
+        <v>-13.05570000000001</v>
       </c>
       <c r="D98" t="n">
         <v>-8.529999999999999</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.81170000000001</v>
+        <v>-12.1364</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.28360000000001</v>
+        <v>-13.427</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-8.050200000000004</v>
+        <v>-8.191700000000004</v>
       </c>
     </row>
   </sheetData>
